--- a/Docs/Config/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Docs/Config/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -4,13 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16507" windowHeight="9517" activeTab="1"/>
+    <workbookView windowHeight="15780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
     <sheet name="Router" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -104,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1097,16 +1110,16 @@
   <dimension ref="C3:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6283185840708" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3716814159292" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1238938053097" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.33653846153846" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.16346153846154" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1315,16 +1328,17 @@
   <dimension ref="C3:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6283185840708" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3716814159292" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1238938053097" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.13461538461539" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
